--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/53_Konya_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/53_Konya_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40585A17-06FB-445E-9B71-9E17AF4A732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3422DAFD-ABEA-4079-AF65-C6F68F6305D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{64207E6D-0390-42D9-A220-85979B3C0A76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{F6067AEB-BC14-4863-AA31-FE3C6DE5D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -943,13 +943,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7901C676-20AA-42F2-B71F-99E741AF5703}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{97FDA13D-9B40-4F6F-88E4-1885D92637F5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D32E201E-6D56-4CF9-872E-5574ED667DA9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{503217BC-E30E-49C0-ABA7-CB8AB060EB0D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9CE600CF-119A-4B4A-B950-C9F5D400492C}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D34D9B9A-B370-47B2-827D-D4AC7F856BDF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{18EA1E3B-6E12-44EF-9FC5-C585B13D0B54}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EEEFB409-19CF-4D00-9F58-807685E32315}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{95BC8560-3EE7-4C92-AF7C-EDD6DCCBD822}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CD5F94B3-0C0F-4FA5-9169-BD60CD25F4F6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1D6A0BEB-3D56-441C-A622-4C555C63F314}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{146A41E2-1F54-4CEB-8D19-A1582635A3FE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{07086F4C-8342-4402-AFC4-AEABB59C9D8B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FAFB2E13-795F-4F47-BF10-347D0F29B971}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1319,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23175FB-9D27-4199-8586-18FAC3C3D3C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCB058C-F446-4CAF-8BF2-6B5BEE053F3A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2594,18 +2594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8A6720C-6556-4700-BBCF-DF2CB99DECCF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBD0076C-CA88-4577-856C-22C4D0EE9391}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1D0BFA3-AE9B-4C4E-BDB0-672412790648}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EBA12E6-1757-41A4-9345-2C5EB6F8A74B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7A15DFD-194A-422C-A557-ABE5468EB054}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CB31C724-91DF-4A8C-AD31-A2AD2774D0C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D8D3CA8-4DC9-4D16-9317-D7B7A817EB95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6154C8E0-2817-40EA-A8FB-57342DDBA565}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2CDFADB-B321-41EF-A2EB-F06BF0B6EF4B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D5DA203-D695-4911-A33C-0B2C872AB21E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25D27FE7-3CA0-4894-95A2-163330C0E73D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06C1C53A-AE84-496F-BB39-13806DFC98D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DFB7D12-693D-4443-9553-5A2DFA93F3E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEAF60AF-3AF2-4CA0-BFF5-BDB61BE5FE8B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0DB6311-F1AF-4FBF-AD44-8DE86E3E13FB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4493EF7D-E438-4785-9E49-062A342A1B30}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D319A7E8-261C-4B89-9711-C6BBED5B1B77}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E17F28B-3E44-42FA-B840-D7A3EEC21B31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F44705D-18EC-4154-84C7-95F6ACE0F2BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CBAE667-6427-4EB6-A9E4-103F4F2CE5D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7DCD206-F6C8-43F2-A6A6-5B658FAA7BD2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CCC70C9-65D6-4D3C-BD4A-AAD39A9B639E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{603A8C71-7906-459C-A7B7-CDF7B3102471}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B49F0181-B8A3-482E-B4C9-4E1EAE032279}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A99E3E8-C3E1-416F-87D2-82CF44CAA27C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAD5868-F380-4A46-9C66-658E1F3E13A9}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3878,18 +3878,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55627DF4-A59C-47CC-9EE4-84B2CEF043F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A4D9528-12B8-4BC0-9C71-58643E71DFDE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B143004-277C-4387-B2AB-406ADF4C17E7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C34008F-5937-4666-BDC1-F8315EC3C362}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F34A5BD6-8DC7-4144-962F-8768F2AE5F6A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21804203-6647-4F1B-AF6F-069E7043A504}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60C6A23D-AB6F-43E2-8402-D2B5F5659AED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3323D60-081A-4F4F-986F-A906120340E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FCDDE55-FA2C-4110-A2D5-22B389C9CDA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E380AE15-541D-4972-8E5E-BF85AB25C481}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D9C3923-845D-43C4-BFF8-5A7ECC95EF37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DFD36C3F-A0EE-4CCB-9371-2DF00A1055EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EDAA39F-3028-4081-9340-50C1E96F3E52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0CB77E5-D260-4874-9959-6B216FB7220C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77F3EC3B-D847-4FCB-AAC0-5F1530049044}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13D7C6AB-BB0C-4063-BF87-E0AC4E89BC1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8EB11C8-E649-4956-A775-56251C05E72E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CC31877-4267-4918-BE9C-65CF35A877E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41EC582A-B67E-49C0-84E9-B67C6BC71AB4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67B9C200-73D4-4FF3-B212-116E7C6CA38C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3E8C61E-3518-4340-94CD-1D3C8B44E2E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC22964B-EBB7-4305-A2B1-E1200FA464C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FFE8F91-85EF-4335-9039-03CE0E51708F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98E94BF3-85E1-4B2C-B429-258390137092}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3902,7 +3902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2793ED-BEE4-4DB2-B05B-8B8D2824FF8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76241CC4-49B6-430B-A60C-11DB76E5E3A6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5162,18 +5162,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80536DF6-FDFF-4F8B-A3F7-7A576B4BBA0B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3106123A-9E13-4F19-AE16-9ED365119E5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6943C9D-7E9D-46B5-BB8C-2FE9164F2ECD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E6F188D1-3700-4210-A327-0189FDD37BD2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94642386-46BD-4D3E-9851-4AFAC3D29DE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B69A5AB-987C-4275-AE06-CF4EBA8B59F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47F88020-67E6-4E93-8631-1FAA53A67A2A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCFC1A36-2C26-414C-BA5C-3F42BB5AB0FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50DA2E60-1113-4B0A-BDB1-A5544E2AA974}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FC8EA1F1-1D3C-4C98-9213-6E9BBA52F069}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A87AE1E3-5B68-465E-9659-9D8612B0B997}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99DE5B10-7808-4590-BCDC-9EF90F2481C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFAB2378-30B1-46AD-A10B-36DC44B3CC37}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A667E52-E171-4BBC-8D7F-A93AC5EF1590}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC3F497A-25A0-4A2D-AB9A-2EB34B53AB2F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFED41F8-000C-45B7-8413-3944CFCB7BF8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A40EBEF0-954F-4923-83EF-BAABC4A245DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15F0B1D7-3E8E-4C2A-9342-2428F3632581}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{542F9129-59C9-4D59-93FF-5261F055A865}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60150276-D8E2-4A5F-AC58-669238318175}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5E0EE17-3973-4082-8ADE-C894A1F63E5B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{316EA74C-605B-4AD0-A679-6E1A3CDFAEE4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F6FB4B1-A652-45E4-9C56-F3CA927553DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BED5E3F-349C-44B8-88FD-F3C2B24493D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5186,7 +5186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA10C9E-9E36-486F-AA00-AA6038AE846B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9870AA-9463-4779-B558-179627BCFCB7}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6438,18 +6438,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{780CB595-92EB-4BEB-A0C8-21F9BF2BCB99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EF9CFB4-CBA5-4327-B6B9-82199CA88B79}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0175F38-2566-4ED4-B61C-C4B2236A9E62}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87793D03-982E-4DCB-89E7-05D2DCB73DF4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{058C36C4-42AE-4242-B700-6192CFF23551}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A09424E2-65A7-4FFC-BBC7-41020EE10E0D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2056C24-8BEF-42C5-8842-956391C15135}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{734E1C42-AED5-4492-973D-620CCE2B2814}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A21BA7C9-DDA0-43B5-A431-E0026F7C0CFC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD86702D-26A0-4707-AE23-106BB4DA146D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28D3E644-B219-4F10-A672-DC2FD6B38BD4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21DBB526-4A38-42C9-B915-A4D1629BB22E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A862F324-3AA6-409F-B57D-90C4CD04543F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2123B9D-78B9-4DDC-A107-3B5D6472FB5D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C352963E-9346-4C22-BB10-1DB127782700}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07A96616-4FCF-4887-8271-5684A3253CA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F05CE84D-3FA5-4D12-9921-C4C3B0759D41}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D085F11-65A7-4A25-B166-FEFED970C4BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA5F20B5-7C8F-4BF3-A495-741D4FA24253}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43342098-36CB-40CF-A921-3D83969EF2EB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31395D9C-7007-4482-A04C-0705A19C42E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96B69C79-25F1-4FC2-92FB-18E2B92C243F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7407FBB-E483-4DDB-9B36-E9896943E2AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E014DB7-5190-419F-AC37-3554A0D1C523}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6462,7 +6462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716F1AD-F86D-4390-ACD0-E742BCB8B7DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2BAE24-C148-4AA3-AE93-F894F7F80AA9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7737,18 +7737,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D318C2EA-AC22-4F6F-8F25-AD82417C287F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48CD4F68-B3C7-460E-B770-4D8F3428584A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55CABB7A-31A3-402D-A320-D37B9F0CC538}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68696221-52C2-45A6-B999-9D2F236D5442}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42369D65-2CD8-4EA4-97BB-26611D968B22}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2935C96B-8726-4844-B679-E2FECAD4255D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6554B0E6-56DD-4B16-8155-E9E93E7D0FDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBB8C5FC-64DE-4B3D-BA80-CE8416BD9B7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A3D2679-B3E0-40D3-BB2B-2084B8345BD1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC592B20-6059-4005-92AB-8848F894DB9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74B91251-CF28-4F8F-8526-E57DE1BB27B1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DA32DDB-B56A-4C9A-8F96-28AE958A6567}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{156C54EE-5C7B-45D0-A82F-7BD732B54600}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BDCA181-0F5B-4927-B8E6-7CCB2CD5DCE9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1C06D03-F571-4763-8839-DDED035F37E8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E5316AA4-E81B-432A-908E-CBE428F8411F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F01182E9-D0B0-4047-B58C-275C7C2EA605}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58272A00-2B76-437F-8FD8-33492A3AC79E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA8962FE-071A-40BB-B672-C48628EA6022}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CCE9C0A-A170-47AA-9EC5-CAB8AD088D06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE5C6DDF-A4ED-4883-8A97-81BA60A12B99}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12504E1D-30A4-4A1A-BF9A-8032990ABB69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15F9DC54-0114-42C8-A9FB-1D27DD249E64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8F37A8E-F442-453F-9646-AC3DE73BC18E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7761,7 +7761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AE4A40-A4C6-489E-A73C-079BF058B525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9358B-01AD-4547-B7DD-48C8C75CC0FC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9032,18 +9032,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FB5636B-4E9E-4BDB-9337-4EEB61934066}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D57CBDC5-EE9C-45B0-9AF1-525A66306558}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A87121A2-F72C-499B-9A5F-1A612904E7BA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EAD309C0-C44A-421B-989D-98B5091DE763}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A848A75-E031-4890-AD79-62DCC78A2375}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{169FFD3F-B82D-4B9C-905A-C056F2F9FCEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{651E5CCF-A5A9-4D13-9BC7-2A784B4D50BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75CDAA3C-CBFB-48A3-A497-F3FA37194BDD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D542F52-6378-450E-AFEC-86A50D9B20DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CF08199-7561-4D54-94EA-1BD7DC9D9AA7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F16A0C01-FBBB-40C6-AEED-34614FF24F33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0E2818A-EF0A-4205-BE24-990D4097D7AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EE251F7-2841-49E5-9DE0-BC8B9A4FB4DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0102EFAB-BE56-44B8-8F65-0377BD260512}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1FB615F-EF51-4F64-B154-AE8A3D13522F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DCAD4321-29B6-4BF6-8238-8C2BA600D5AE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB436B24-9F2C-4F97-8E4E-B70AFA000565}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{254A05FE-A880-4041-8FA2-34D67908E014}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{597DC452-E659-46B8-895C-3468978F3315}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A917B7C-E7E0-457A-A7B5-EA2168F2CFEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9CF17AF-94F7-4508-9BEB-4224F2F9E720}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59A87D6B-1ED7-4934-8671-D1F8A8903633}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{876AAB9E-4D1F-4EB0-9E13-CE7AEE7D73E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{748FF0F6-C03D-435A-9B36-72223758557D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9056,7 +9056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC10E80-6131-4446-B533-DBCEC015D0E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4156E7-B74F-4C4F-B46D-3C44D91B857A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10327,18 +10327,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22C2CB4B-ED4C-4D06-BFC6-69FB21C2C013}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CF3FC1D-8200-44AE-9074-7A769C21918E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{61CA6198-5EFA-49F5-BF61-DF27C90E1C1D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C90C1BE3-A623-4190-B172-8285920701D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E205FA37-D915-4FC1-9FAE-DF42C099FBD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40C006EE-F3D8-44C3-98AB-75FE1E6D8D90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88292151-86B2-4104-9320-F4B0232C9F95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B376108-9587-479A-8338-67D217DDADA3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDFE8A64-FF9D-418B-952F-D3D2F777B43A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A66674EE-0AC9-4EEF-96CE-5567B422FB99}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98D66F11-8CB8-48AF-9832-AB2A4802F394}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52C398FB-4AA4-4F4A-B70A-E293D47A7E76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{492118BF-90BB-4CF2-91BE-2B43C54FAB3E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B6E71AE-762E-49A8-9E22-A7250A45130C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F0A1341-0335-4C02-8CD6-F0CB4CDD63AD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E231690A-0DD9-47B1-8F58-B217508F6E85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFDA526D-DC9E-4446-BF38-3661389C0396}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C92FF74-04D9-439B-985B-A1CDBE200144}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AD9165F-2F37-409D-9EED-7628BC850254}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8AF4728-81A8-424B-A98F-44444F8B196B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AB7D0E8-B06C-4EBC-B15E-CB2665AAA0F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65338AA1-0245-4BC0-A0DF-7CBAE4FE5FCF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC09D3C3-F229-4BD1-A736-28405A58AA68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92CADDB4-1024-4C80-88B1-97E7349C3216}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10351,7 +10351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A2746-AA82-4992-95C0-B4DAECE65FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D316F067-8AFD-4570-BA37-A7A661CA3D34}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11618,18 +11618,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A19E2E9E-564C-44F9-82B8-EA8920274367}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB8E4C27-AEF4-4798-8446-ADC19E46C9FF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA9F5A09-1066-41D4-84D0-8AA7F6F6B371}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE008A29-CDE6-4839-ACAB-84CB1F628F37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7176DB2A-010C-4F98-88BB-C3C5AB460B5D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3F15578-CDE9-4B9E-BAC9-4B1EDFA5FDD8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AD0992C-1403-4B1F-A071-6E8E5282EC64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5AEEB5F-4FC5-475D-8C98-86BBB6A992B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62BA36C4-2658-462E-8111-4834E7C30719}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6F2A4F5-926B-49BB-BCF9-09117D72702C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F89DED2-404C-4208-8FDE-903B492FFCA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3CA059E-3F5F-4C54-9A5C-9D5D060D6BF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C88AD63-BF8E-4EFD-82EA-14D97DC7C367}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CBBFB0F-AB3D-4F78-96CB-073AA998063E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04E882E1-A1A2-4AA8-BFD1-8A463BD0A1CD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3869E7B9-A5B4-47DE-9B74-15A456506557}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A41F47DE-F7F3-4330-B893-B30F2E35D9E5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2972E718-878C-4512-A9D4-C837499AB6CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22FB31DD-79EF-4248-BCB4-16A4A98AD83F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{994F38AC-CC29-4E47-B135-6CB53BB2B1EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{113D2E0B-FAB8-428F-9CE6-129060201C4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D64E13B-8D5F-4F0C-B3CE-23409E4DEF04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87C11412-AEC0-43DD-B1ED-869B428D9877}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BF79C84-1BBA-4186-BD1F-37952380B9DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11642,7 +11642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC79315-A2AF-403F-B7FB-CFBC78E87BF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708CACCF-B469-4015-B12B-16E2A588886E}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12901,18 +12901,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6EE5322-BB69-4166-B9A2-CF06B38BA155}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16B26912-B136-4DC4-B2A0-E894C9C3774E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0B3EA4A-EBD4-4C59-9861-0B89F83D427C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0791CAC0-B3A9-4939-AB3A-87ED32EA3D1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6B4242B-8A89-4A74-8BB7-30F89E1B1A0C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8BD6818-67D4-45AC-AA6B-5671CC577CA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC6BE574-3DD5-478F-ACEC-385B149E4BA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C9F4F01-7B89-44C7-AACD-E3C21D320C63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23B112A8-114B-4093-B59B-5D16864E5DD4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F133CC6D-D0EA-4A2D-9011-AAEFEA0573B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A324DBC-5013-4BA7-8494-23F828624062}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{699F7E61-FAF3-4FBD-833F-6A96D7A893D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{321659A9-0CB8-44C8-A5CE-29B79481D98D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B7204FC2-32A3-4752-9A66-B203A9CFE49F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2423914D-46EF-4C3D-B762-062EFDFBD7C3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CC19C942-233A-42E1-A4B0-AFB1E8DDE951}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8C27B7C-5E8D-4943-81B7-72AA5E93D3A3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72EB5960-CABE-4BB6-89BF-EA0B42C75F4A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{047CCA60-FC55-4B57-8B39-3FCA82CCF843}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6432E751-4996-4DC5-8EA7-69CD24E24130}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB3EBC9C-0B61-4C5B-AF73-438A141D9F76}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02CECFF9-B7AC-4CE9-B93F-FA9133774879}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF543975-7AE4-4FCE-8CEC-23006A4476AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B506D64-AF79-4827-BFEF-2BB97DA25A3E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12925,7 +12925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B5F7E-F532-4A53-859A-C63320A9BD92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C01710-7741-4793-A3A6-617B3707F75E}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14185,18 +14185,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A815AD33-0FCF-4DBE-B87E-CA451CAD6B5E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB565CFB-A4AA-4BD0-A415-4F698AD17862}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6E122E7-9622-4A77-BAF9-834ECD09E1F0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{88ADEF9D-1652-4BA5-8A65-BBD58F40C46C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77466FC7-2C3E-4775-B329-439B81266DA4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5DBB215-AA06-4064-9E4D-1D71C288ED22}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B87DA576-2D07-41E2-BEFC-A18DED3784AD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D18B845-F82E-47B2-B942-7A348FED0BC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3765F9F-AC1B-4300-91EB-8E396B4B317D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8AEFC38-4C88-4565-829E-24C66B166DE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FE372B3-5D4A-49A0-B3B3-8772982111AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB6C0CE1-E516-4CB1-841A-DC876877B7CA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E78A26B-9C01-417F-9D6B-B10850F95AB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB46D896-7BB2-4D7F-BB0F-DF1AF90C893C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27A329F5-36AA-496D-970C-1072180DF7F2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{557B61BF-81D0-43E8-A241-7C58B3D67F44}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0843967-B048-47E6-94BB-3AB753C940AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E21ECBE-F208-4DC6-83AE-7344A32E47F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C20E125-3632-4E05-B9CF-23756D03513A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DF8E89E-B1FD-4F66-9BF2-5EC992C9BB7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F8BD211-8463-499A-9B2E-36D98D1A81F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{070E19BE-FEAA-4CBC-8108-C973435305DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3CBE1967-25C5-4157-ACE8-D50EB68B3C7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4BECC6F-64D0-4C29-A06A-238789CC860F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14209,7 +14209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAFEA4C-F82D-448E-BB59-B05F53F7CF23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95CB5CD-3B09-423D-A6D7-F3215FB1A01E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15469,18 +15469,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5FE6A67-AC9E-4E63-AFE1-7789373BA4E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{411B849E-18F7-492C-98EE-B63E41F548BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18904B8B-674F-4208-840D-EEB8F94EC5FF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C481C799-76E6-4033-8B87-7C2A7BB5A251}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99B03C68-80F8-47CC-AFC4-6154A8216685}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3325F7B-2B41-4003-874B-018596B4DEA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7F65022-3677-470B-8DDE-5213FBF776CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33B1313A-0A7B-444E-9E23-3F32041FD72D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57B1635A-E33A-44C1-A56A-16D38CC41FBA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92A4FB7F-A487-4D42-B631-08A00BFE85E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14317657-A038-48A5-B8A5-D73FC13F3394}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C958A6E1-9EED-4F92-A311-18659D8C9ED9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCB591E0-CD4C-4726-863A-401AB634AE95}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{306DF04F-65A4-488A-8B2C-27D331B38BA7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3651C69-E5D6-4A7C-98DD-2FBFF07A6FAD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6305B8AB-DD2F-452C-859A-CACC76D0676F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B911FB67-1101-4320-9C41-A89186D8B61B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA024243-48F7-40BF-B51E-601D31C03BC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{328678FC-1192-46AE-9304-BF164F9ADAD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF69B3E3-D112-4397-836F-64468BCCA95A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CD7C03C-CE65-4F3F-A2D3-36D9440166EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6F39E81-B217-40A1-9DC5-6CC1F470813E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF81D370-035E-47BB-ADEF-45CECDEE62C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CF0A831-B97B-4983-817C-BF4E540E13C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15493,7 +15493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F264237-4CE7-4E3F-9F22-6A5E9689D513}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E534DD75-184A-457A-8A1F-8D7E582190B3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16753,18 +16753,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CAAC9F6-A7A6-44D8-9796-545232EEE909}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2AA6E4E-5590-40A1-AF30-EE8DE823DBE6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{811F5ABA-7547-4F3E-AC69-3557D8A881A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5750FE59-D92F-46CA-AF27-C16B7FD3FE1B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90388169-2327-4C4C-A205-FF42FCCF6A62}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96D28EAC-C77C-4B1E-B39D-C67B58AF87E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA8E762C-821B-4FB4-81CB-4E14004E4CC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECA07BEC-3B7B-456E-9244-1E8B7507E1D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19D5CC20-C151-4C66-A4CE-180C8345ACCA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC091EAB-F0DF-4BC4-83A5-E4F2547B8C6E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7446B6A-3EC1-4419-A6F8-F5BBEB8422C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B4410FA-1915-441B-B658-86A5BB692E0D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94699261-E6CF-4396-ADD0-7DBECF3D60D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAE836CC-94B9-4439-941D-11C68B5724A5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{37F975B5-F27E-4E9D-AF74-47096574103D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BD9A43A-B68A-4C91-9264-C2E589457DB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE26E0D4-3DD2-4478-8D1E-A58786CC1C85}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92760FD2-B1F8-4457-8D20-72A768656DA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD7AC8E9-FE33-4B22-9CBF-E3619554A437}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{395824C5-FDCC-491C-9B57-6C0EEBFEC70B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E6CE439-4D37-4A3F-8EE0-823357BA80CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB25152E-C560-4634-BF55-8B2268FB1907}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{151CEF0D-A415-4CC2-B440-69F1727FC215}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F40396E0-6EBE-414C-AAE9-B101C4E2835F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
